--- a/downloaded_files/MDPS370_Lecture-35904.xlsx
+++ b/downloaded_files/MDPS370_Lecture-35904.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,42 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4210403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد هشام محمد ابوالعزايم مختار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hesham Mohmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جيسى ارميا وديع جندي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessy Aemia Wadie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>دانيال رائد منير تقاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniel Raed Mounir Takawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +143,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -132,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -432,17 +482,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="27.980625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,22 +560,143 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45919.8967410069</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45919.8959542477</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45919.8945651968</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45919.8938534375</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanics of Solids (MDPS370) Location : [20323]20323-32-الجيزة الرئيسي Time : Monday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanics of Solids (MDPS370) Location : [20323]20323-32-الجيزة الرئيسي Time : Tuesday(14:16)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanics of Solids (MDPS370) Location : [20323]20323-32-الجيزة الرئيسي Time : Monday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanics of Solids (MDPS370) Location : [20323]20323-32-الجيزة الرئيسي Time : Tuesday(14:16)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanics of Solids (MDPS370) Location : [20323]20323-32-الجيزة الرئيسي Time : Monday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanics of Solids (MDPS370) Location : [20323]20323-32-الجيزة الرئيسي Time : Tuesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MDPS370_Lecture-35904.xlsx
+++ b/downloaded_files/MDPS370_Lecture-35904.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد هشام محمد ابوالعزايم مختار</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Hesham Mohmed</x:t>
+    <x:t>Ahmed Hisham Muhammad Abu Al-Azayem, Mukhtar</x:t>
   </x:si>
   <x:si>
     <x:t>1200404</x:t>
@@ -48,7 +48,7 @@
     <x:t>جيسى ارميا وديع جندي</x:t>
   </x:si>
   <x:si>
-    <x:t>Jessy Aemia Wadie</x:t>
+    <x:t>Jesse Jeremiah Wadih Jundi</x:t>
   </x:si>
   <x:si>
     <x:t>1210350</x:t>
@@ -491,7 +491,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="27.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.530625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MDPS370_Lecture-35904.xlsx
+++ b/downloaded_files/MDPS370_Lecture-35904.xlsx
@@ -66,7 +66,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
+    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/downloaded_files/MDPS370_Lecture-35904.xlsx
+++ b/downloaded_files/MDPS370_Lecture-35904.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1200099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالعال عبدالقوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdelaal AbdelKawy</x:t>
+  </x:si>
+  <x:si>
     <x:t>4210403</x:t>
   </x:si>
   <x:si>
@@ -58,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Daniel Raed Mounir Takawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شهاب أشرف طه غلاب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shehab Ashraf Taha Ghalab</x:t>
   </x:si>
   <x:si>
     <x:t>2220009</x:t>
@@ -182,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +500,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +591,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45919.8967410069</x:v>
+        <x:v>45927.4259585301</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -605,7 +623,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45919.8959542477</x:v>
+        <x:v>45919.8967410069</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -637,7 +655,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45919.8945651968</x:v>
+        <x:v>45919.8959542477</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -669,7 +687,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.8938534375</x:v>
+        <x:v>45919.8945651968</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -686,6 +704,70 @@
       <x:c r="R5" s="2" t="s"/>
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45927.5878301736</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45919.8938534375</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS370_Lecture-35904.xlsx
+++ b/downloaded_files/MDPS370_Lecture-35904.xlsx
@@ -84,7 +84,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+    <x:t>Fares Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
 </x:sst>
 </file>
